--- a/P0_Hello_to_RoSA/vendor.xlsx
+++ b/P0_Hello_to_RoSA/vendor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433BF9DF-D0B5-44C7-9A09-41276E4423FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1A9E9-F3E2-4FEB-A6AA-059A7D2B64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/P0_Hello_to_RoSA/vendor.xlsx
+++ b/P0_Hello_to_RoSA/vendor.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1A9E9-F3E2-4FEB-A6AA-059A7D2B64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DBE97A-5A9B-48E3-91E8-E9D72034FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor_Bob" sheetId="1" r:id="rId1"/>
-    <sheet name="Vendor_Sue" sheetId="2" r:id="rId2"/>
+    <sheet name="Vendor_Sup" sheetId="2" r:id="rId2"/>
+    <sheet name="Vendor_grocery" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>keyboard</t>
   </si>
@@ -41,15 +42,33 @@
   </si>
   <si>
     <t>Water bottle</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>Pant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacket </t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +408,29 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -399,10 +440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5615A4-F9E5-4D21-8A2A-DE94143692EA}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,13 +464,97 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94FD8CA-2747-4092-9504-342061355A3F}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/P0_Hello_to_RoSA/vendor.xlsx
+++ b/P0_Hello_to_RoSA/vendor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26352693-1599-4746-86C9-E6A900E2E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C1B3FD-F601-468D-83DD-789433C4C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20590" yWindow="-110" windowWidth="20700" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor_Bob" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>keyboard</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -57,21 +54,12 @@
     <t xml:space="preserve">Jacket </t>
   </si>
   <si>
-    <t>monitor</t>
-  </si>
-  <si>
-    <t>camera</t>
-  </si>
-  <si>
     <t>Salt</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>Laptop</t>
   </si>
   <si>
@@ -91,6 +79,18 @@
   </si>
   <si>
     <t>Shoes</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
   </si>
 </sst>
 </file>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,29 +422,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>150</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -455,18 +455,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -477,62 +477,62 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>400</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>399</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>299</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -543,18 +543,18 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -565,18 +565,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>120</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>70</v>
@@ -596,47 +596,47 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C19">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C20">
         <v>90</v>
       </c>
     </row>

--- a/P0_Hello_to_RoSA/vendor.xlsx
+++ b/P0_Hello_to_RoSA/vendor.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B514B62C-B404-43AB-8D96-8F42AB91D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1521B86D-4898-4815-ABEF-26FD42008230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3588" yWindow="5268" windowWidth="16992" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13920" yWindow="2280" windowWidth="11800" windowHeight="10520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vendor_Bob" sheetId="1" r:id="rId1"/>
+    <sheet name="Clothing, Luggage &amp; Handbags" sheetId="11" r:id="rId1"/>
+    <sheet name="Grocery" sheetId="6" r:id="rId2"/>
+    <sheet name="Vendor_Bob" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Item</t>
   </si>
@@ -100,6 +102,12 @@
   </si>
   <si>
     <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>Orange</t>
   </si>
 </sst>
 </file>
@@ -417,11 +425,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D56EA64-3FB5-404B-8ADC-3F6A1B9B115B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F9D91C-1BF6-43B9-B86A-2FA53655CC10}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>330</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +550,7 @@
         <v>300</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,7 +583,7 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,7 +594,7 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">

--- a/P0_Hello_to_RoSA/vendor.xlsx
+++ b/P0_Hello_to_RoSA/vendor.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C1B3FD-F601-468D-83DD-789433C4C89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F70E4-2AFF-4024-9186-5694AD2C52C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20590" yWindow="-110" windowWidth="20700" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vendor_Bob" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="13" r:id="rId1"/>
+    <sheet name="Electronics" sheetId="12" r:id="rId2"/>
+    <sheet name="Clothing, Luggage &amp; Handbags" sheetId="11" r:id="rId3"/>
+    <sheet name="Grocery" sheetId="6" r:id="rId4"/>
+    <sheet name="Vendor_Bob" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
@@ -91,6 +104,33 @@
   </si>
   <si>
     <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Smart Watch</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Vaccum Cleaner</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Table</t>
   </si>
 </sst>
 </file>
@@ -408,11 +448,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BBF3A0-335D-4BA2-9462-8BFB82B4B11D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>200.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>119.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876FB962-63DD-417A-95CA-526E92F5DEED}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>500.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>300.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>999.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D56EA64-3FB5-404B-8ADC-3F6A1B9B115B}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>115</v>
+      </c>
+      <c r="C2">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>99.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F9D91C-1BF6-43B9-B86A-2FA53655CC10}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>1.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +726,7 @@
         <v>300</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -472,7 +748,7 @@
         <v>500</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,7 +759,7 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -494,7 +770,7 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,7 +781,7 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -538,7 +814,7 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,7 +847,7 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -604,7 +880,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -626,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>300</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/P0_Hello_to_RoSA/vendor.xlsx
+++ b/P0_Hello_to_RoSA/vendor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F70E4-2AFF-4024-9186-5694AD2C52C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552FFAE4-DE4A-4AFC-8901-428366BE0A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20590" yWindow="-110" windowWidth="20700" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5532" yWindow="-6804" windowWidth="28572" windowHeight="19764" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="13" r:id="rId1"/>
@@ -451,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BBF3A0-335D-4BA2-9462-8BFB82B4B11D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F9D91C-1BF6-43B9-B86A-2FA53655CC10}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C2">
         <v>2.99</v>

--- a/P0_Hello_to_RoSA/vendor.xlsx
+++ b/P0_Hello_to_RoSA/vendor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552FFAE4-DE4A-4AFC-8901-428366BE0A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BCEF00-19E1-418B-8864-0176D580E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5532" yWindow="-6804" windowWidth="28572" windowHeight="19764" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2112" yWindow="1344" windowWidth="11796" windowHeight="10524" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Handbag</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BBF3A0-335D-4BA2-9462-8BFB82B4B11D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +508,17 @@
       </c>
       <c r="C4">
         <v>119.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>5.99</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +531,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>500.99</v>
@@ -567,10 +587,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D56EA64-3FB5-404B-8ADC-3F6A1B9B115B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>40.99</v>
@@ -617,6 +637,28 @@
       </c>
       <c r="C4">
         <v>99.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>35.99</v>
       </c>
     </row>
   </sheetData>
@@ -626,10 +668,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F9D91C-1BF6-43B9-B86A-2FA53655CC10}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>2.99</v>
@@ -675,6 +717,17 @@
         <v>400</v>
       </c>
       <c r="C4">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
         <v>1.99</v>
       </c>
     </row>
